--- a/scenarios/bladder/Scenario.xlsx
+++ b/scenarios/bladder/Scenario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t xml:space="preserve">Process</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dropout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fungus</t>
   </si>
 </sst>
 </file>
@@ -234,13 +231,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.14"/>
@@ -315,14 +312,6 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
